--- a/urls.xlsx
+++ b/urls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sabbir\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3F3EE0-44BB-4F6B-9AB6-E7250B29A270}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9CA8A4-DBDB-4659-BD31-B86BFA97986C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
     <t>https://www.abbviepro.com/de/de.html</t>
   </si>
   <si>
-    <t>https://www-q.abbviepro.com/de/de.html</t>
+    <t>https://dev2.abbviepro.com/de/de.html</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -440,24 +440,27 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{B2D6D9A6-467C-45E8-A7A2-5682F4FD3D97}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{43C45977-DA14-4E77-AEE0-79D6A3DC6751}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{138BAF19-469F-413F-939F-739222599B39}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{8CC75DF0-CD04-4A92-AC23-5B4EFF0AF4E7}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{8FAA9324-098C-49CC-AC19-36BCE886F434}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/urls.xlsx
+++ b/urls.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sabbir\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9CA8A4-DBDB-4659-BD31-B86BFA97986C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB44259-953D-4218-ADF8-3D3212DAFDD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,16 +22,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
-    <t>devUrls</t>
-  </si>
-  <si>
-    <t>prodUrls</t>
-  </si>
-  <si>
     <t>https://www.abbviepro.com/de/de.html</t>
   </si>
   <si>
     <t>https://dev2.abbviepro.com/de/de.html</t>
+  </si>
+  <si>
+    <t>testUrls</t>
+  </si>
+  <si>
+    <t>mainUrls</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -433,26 +433,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -463,8 +463,5 @@
     <hyperlink ref="B3" r:id="rId4" xr:uid="{8FAA9324-098C-49CC-AC19-36BCE886F434}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:B1" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/urls.xlsx
+++ b/urls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sabbir\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB44259-953D-4218-ADF8-3D3212DAFDD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B711C4A9-E175-4A43-9658-4309F00F5547}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,18 +20,672 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
-  <si>
-    <t>https://www.abbviepro.com/de/de.html</t>
-  </si>
-  <si>
-    <t>https://dev2.abbviepro.com/de/de.html</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
   <si>
     <t>testUrls</t>
   </si>
   <si>
     <t>mainUrls</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/uy/es/comprenda-su-DA/conoce-el-impacto-en-tu-DA.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/uy/es/comprenda-su-DA/conoce-el-impacto-en-tu-DA.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/sk/sk/priprava-na-rozhovor-s-lekarom/nastavte-si-vase-ciele/asistent-mojich-cielov.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/sk/sk/priprava-na-rozhovor-s-lekarom/nastavte-si-vase-ciele/asistent-mojich-cielov.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/de/de/neurodermitis-behandeln.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/de/de/neurodermitis-behandeln.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/sa/en/tools-to-support-a-new-conversation/setting-your-goals/goal-writing-assistant.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/sa/en/tools-to-support-a-new-conversation/setting-your-goals/goal-writing-assistant.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/sa/en/tools-to-support-a-new-conversation/understand-the-impact-of-your-ad.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/sa/en/tools-to-support-a-new-conversation/understand-the-impact-of-your-ad.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/nl/nl/tools-to-support-a-new-conversation/bepaal-je-prioriteiten.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/nl/nl/tools-to-support-a-new-conversation/bepaal-je-prioriteiten.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/se/sv/tools-to-support-a-new-conversation/understand-the-impact-of-your-ad.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/se/sv/tools-to-support-a-new-conversation/understand-the-impact-of-your-ad.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/ar/es/basic-login/forgot-password.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/ar/es/basic-login/forgot-password.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/ie/en/understanding-eczema/understanding-your-eczema.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/ie/en/understanding-eczema/understanding-your-eczema.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/cz/cs/priprava-na-rozhovor-s-lekarem/naplanujte-si-dalsi-schuzku-s-lekarem.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/cz/cs/priprava-na-rozhovor-s-lekarem/naplanujte-si-dalsi-schuzku-s-lekarem.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/ie/en.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/ie/en.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/jp/ja/Goalsetting/GoalWritingAssitant.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/jp/ja/Goalsetting/GoalWritingAssitant.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/gb/en/tools-to-support-a-new-conversation/understand-the-impact-of-your-ad/ad-impact-analyzer.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/gb/en/tools-to-support-a-new-conversation/understand-the-impact-of-your-ad/ad-impact-analyzer.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/jp/ja/sitemap.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/jp/ja/sitemap.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/de/de/blog-beitraege/neurodermitis-im-gesicht.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/de/de/blog-beitraege/neurodermitis-im-gesicht.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/cz/cs/priprava-na-rozhovor-s-lekarem/stanovte-si-sve-cile/asistent-pro-nastaveni-cilu.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/cz/cs/priprava-na-rozhovor-s-lekarem/stanovte-si-sve-cile/asistent-pro-nastaveni-cilu.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/ru/ru/ignorance-is-greater.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/ru/ru/ignorance-is-greater.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/sk/sk/priprava-na-rozhovor-s-lekarom/naplanujte-si-dalsie-stretnutie-s-lekarom/priprava-na-stretnutie-s-lekarom.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/sk/sk/priprava-na-rozhovor-s-lekarom/naplanujte-si-dalsie-stretnutie-s-lekarom/priprava-na-stretnutie-s-lekarom.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/test/performance-optimization/fi/ymmarra-atooppista-ihottumaasi.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/test/performance-optimization/fi/ymmarra-atooppista-ihottumaasi.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/nl/nl/tools-to-support-a-new-conversation/bepaal-je-prioriteiten/goal-writing-assistant.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/nl/nl/tools-to-support-a-new-conversation/bepaal-je-prioriteiten/goal-writing-assistant.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/sa/en1/tools-to-support-a-new-conversation/setting-your-goals/goal-writing-assistant.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/sa/en1/tools-to-support-a-new-conversation/setting-your-goals/goal-writing-assistant.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/ch.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/ch.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/ar.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/ar.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/at.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/at.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/nl/nl/exzeem/hoe-praat-ik-over-eczeem.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/nl/nl/exzeem/hoe-praat-ik-over-eczeem.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/be.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/be.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/jp/ja/instagram.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/jp/ja/instagram.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/nl/nl/exzeem/verliefdheid-en-seks.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/nl/nl/exzeem/verliefdheid-en-seks.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/de/de/blog-beitraege/neurodermitis-lebensphasen.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/de/de/blog-beitraege/neurodermitis-lebensphasen.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/nl/nl/exzeem/verhalen-van-anderen.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/nl/nl/exzeem/verhalen-van-anderen.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/sa/en1/errors.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/sa/en1/errors.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/de/de.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/de/de.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/nl/nl/behandelopties.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/nl/nl/behandelopties.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/uy/es/conectar-con-un-medico/ad-doctor-appointment-guide.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/uy/es/conectar-con-un-medico/ad-doctor-appointment-guide.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/at/de/blog/was-kann-ich-von-einer-therapie-heutzutage-erwarten.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/at/de/blog/was-kann-ich-von-einer-therapie-heutzutage-erwarten.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/jp.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/jp.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/ru/ru/termsofuse.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/ru/ru/termsofuse.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/gb/en/all-about-eczema.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/gb/en/all-about-eczema.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/se/sv/sitemap.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/se/sv/sitemap.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/de.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/de.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/gr/el/tools-to-support-a-new-conversation/planning-your-next-appointment.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/gr/el/tools-to-support-a-new-conversation/planning-your-next-appointment.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/nl/nl/exzeem/eczeemspecialisten.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/nl/nl/exzeem/eczeemspecialisten.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/gb.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/gb.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/nl/nl/exzeem/checklist-voor-je-afspraak.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/nl/nl/exzeem/checklist-voor-je-afspraak.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/gb/en/understanding-eczema.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/gb/en/understanding-eczema.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/gr/el/tools-to-support-a-new-conversation/understand-the-impact-of-your-ad.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/gr/el/tools-to-support-a-new-conversation/understand-the-impact-of-your-ad.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/fr.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/fr.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/ie/en/tools-to-support-a-new-conversation/setting-your-goals.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/ie/en/tools-to-support-a-new-conversation/setting-your-goals.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/fi.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/fi.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/gr/el/tools-to-support-a-new-conversation/planning-your-next-appointment/appointment-preparation-tool.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/gr/el/tools-to-support-a-new-conversation/planning-your-next-appointment/appointment-preparation-tool.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/py.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/py.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/test/performance-optimization/el.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/test/performance-optimization/el.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/sa/en1/tools-to-support-a-new-conversation.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/sa/en1/tools-to-support-a-new-conversation.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/se.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/se.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/de/de/blog-beitraege/juck-kratz-kreislauf-unterbrechen.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/de/de/blog-beitraege/juck-kratz-kreislauf-unterbrechen.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/sk.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/sk.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/test/performance-optimization/fi.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/test/performance-optimization/fi.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/fi/fi.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/fi/fi.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/sa.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/sa.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/gb/en/useful-tools.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/gb/en/useful-tools.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/ru.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/ru.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/nl/nl/exzeem/behandelingen-bij-eczeem.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/nl/nl/exzeem/behandelingen-bij-eczeem.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/nl/nl/tools-to-support-a-new-conversation/bereid-de-afspraak-met-je-zorgverlener-voor/appointment-preparation-tool-short.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/nl/nl/tools-to-support-a-new-conversation/bereid-de-afspraak-met-je-zorgverlener-voor/appointment-preparation-tool-short.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/py/es/conectar-con-un-medico/encontra-apoyo.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/py/es/conectar-con-un-medico/encontra-apoyo.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/ie/en/useful-tools/appointment-planner.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/ie/en/useful-tools/appointment-planner.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/de/de/blog-beitraege/neurodermitis-arztbesuch-richtig-vorbereiten.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/de/de/blog-beitraege/neurodermitis-arztbesuch-richtig-vorbereiten.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/nl.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/nl.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/ar/es/tome-el-control.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/ar/es/tome-el-control.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/cz/cs/priprava-na-rozhovor-s-lekarem/stanovte-si-sve-cile.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/cz/cs/priprava-na-rozhovor-s-lekarem/stanovte-si-sve-cile.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/nl/nl/exzeem/jeuk.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/nl/nl/exzeem/jeuk.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/nl/nl/exzeem/baas-over-je-eczeem.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/nl/nl/exzeem/baas-over-je-eczeem.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/sa/en/tools-to-support-a-new-conversation/understand-the-impact-of-your-ad/ad-impact-analyzer.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/sa/en/tools-to-support-a-new-conversation/understand-the-impact-of-your-ad/ad-impact-analyzer.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/jp/ja/what-are-the-symptoms-of-ad/treatment.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/jp/ja/what-are-the-symptoms-of-ad/treatment.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/fr/fr/obtenez-de-laide.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/fr/fr/obtenez-de-laide.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/at/de/blog/neurodermitis-interview-dr-binder.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/at/de/blog/neurodermitis-interview-dr-binder.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/de/de/blog-beitraege/neurodermitis-herbst-winter.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/de/de/blog-beitraege/neurodermitis-herbst-winter.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/de/de/blog-beitraege/systemtherapie-biologika-jak-inhibitoren.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/de/de/blog-beitraege/systemtherapie-biologika-jak-inhibitoren.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/ru/ru/getting-support.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/ru/ru/getting-support.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/gr/el/sitemap.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/gr/el/sitemap.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/uy.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/uy.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/fr/fr/en-savoir-plus-sur-la-dermatite-atopique.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/fr/fr/en-savoir-plus-sur-la-dermatite-atopique.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/tr.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/tr.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/sa/en/errors/404.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/sa/en/errors/404.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/sa/en/errors/403.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/sa/en/errors/403.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/nl/nl/neem-de-controle.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/nl/nl/neem-de-controle.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/cz/cs/sitemap.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/cz/cs/sitemap.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/ie/en/understanding-eczema/managing-your-eczema.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/ie/en/understanding-eczema/managing-your-eczema.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/gb/en/errors.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/gb/en/errors.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/de/de/basic-login.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/de/de/basic-login.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/at/de/was-expertinnen-sagen.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/at/de/was-expertinnen-sagen.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/sk/sk/prevezmite-kontrolu.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/sk/sk/prevezmite-kontrolu.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/at/de/blog/neues-neurodermitis-lexikon-macht-fachchinesisch-verstaendlich.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/at/de/blog/neues-neurodermitis-lexikon-macht-fachchinesisch-verstaendlich.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/de/de/blog-beitraege/chronische-neurodermitis-was-verbirgt-sich-hinter-der-hauterkrankung.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/de/de/blog-beitraege/chronische-neurodermitis-was-verbirgt-sich-hinter-der-hauterkrankung.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/at/de/blog/wissenswertes-zu-neurodermitis.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/at/de/blog/wissenswertes-zu-neurodermitis.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/sk/sk/priprava-na-rozhovor-s-lekarom/nastavte-si-vase-ciele/nastavte-si-vase-ciele.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/sk/sk/priprava-na-rozhovor-s-lekarom/nastavte-si-vase-ciele/nastavte-si-vase-ciele.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/de/de/build-test.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/de/de/build-test.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/nl/nl/tools-to-support-a-new-conversation/bereid-de-afspraak-met-je-zorgverlener-voor.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/nl/nl/tools-to-support-a-new-conversation/bereid-de-afspraak-met-je-zorgverlener-voor.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/sk/sk/priprava-na-rozhovor-s-lekarom/spoznajte-vplyv-svojej-ad.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/sk/sk/priprava-na-rozhovor-s-lekarom/spoznajte-vplyv-svojej-ad.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/at/de/was-stimmt-was-nicht.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/at/de/was-stimmt-was-nicht.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/ar/es/basic-login.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/ar/es/basic-login.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/at/de/wann-ist-ein-arztbesuch-wichtig.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/at/de/wann-ist-ein-arztbesuch-wichtig.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/de/de/blog-beitraege.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/de/de/blog-beitraege.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/nl/nl/ondersteuning-nodig.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/nl/nl/ondersteuning-nodig.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/jp/ja/index.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/jp/ja/index.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/ru/ru/understand-your-ad.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/ru/ru/understand-your-ad.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/uy/es/recursos/preguntas-frecuentes.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/uy/es/recursos/preguntas-frecuentes.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/ar/es/basic-login/basic-login.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/ar/es/basic-login/basic-login.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/sa/en1/tools-to-support-a-new-conversation/planning-your-next-appointment/appointment-preparation-tool.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/sa/en1/tools-to-support-a-new-conversation/planning-your-next-appointment/appointment-preparation-tool.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/ie/en/errors/500.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/ie/en/errors/500.html</t>
+  </si>
+  <si>
+    <t>https://dev.lets-talk-eczema.com/sa/en/tools-to-support-a-new-conversation/planning-your-next-appointment/appointment-preparation-tool-short.html</t>
+  </si>
+  <si>
+    <t>https://www.lets-talk-eczema.com/sa/en/tools-to-support-a-new-conversation/planning-your-next-appointment/appointment-preparation-tool-short.html</t>
   </si>
 </sst>
 </file>
@@ -55,12 +709,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -76,9 +736,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -419,49 +1084,1268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2:B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="119.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="120.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="4"/>
+      <c r="B156" s="4"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="4"/>
+      <c r="B159" s="4"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="4"/>
+      <c r="B160" s="4"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="4"/>
+      <c r="B161" s="4"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" s="4"/>
+      <c r="B162" s="4"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="4"/>
+      <c r="B163" s="4"/>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="4"/>
+      <c r="B164" s="4"/>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="4"/>
+      <c r="B165" s="4"/>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" s="4"/>
+      <c r="B166" s="4"/>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" s="4"/>
+      <c r="B167" s="4"/>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" s="4"/>
+      <c r="B168" s="4"/>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="4"/>
+      <c r="B169" s="4"/>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="4"/>
+      <c r="B170" s="4"/>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" s="4"/>
+      <c r="B171" s="4"/>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="4"/>
+      <c r="B172" s="4"/>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" s="4"/>
+      <c r="B173" s="4"/>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" s="4"/>
+      <c r="B174" s="4"/>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" s="4"/>
+      <c r="B175" s="4"/>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" s="4"/>
+      <c r="B176" s="4"/>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="4"/>
+      <c r="B179" s="4"/>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="4"/>
+      <c r="B180" s="4"/>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="4"/>
+      <c r="B181" s="4"/>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" s="4"/>
+      <c r="B182" s="4"/>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" s="4"/>
+      <c r="B183" s="4"/>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="4"/>
+      <c r="B184" s="4"/>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" s="4"/>
+      <c r="B185" s="4"/>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="4"/>
+      <c r="B186" s="4"/>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" s="4"/>
+      <c r="B187" s="4"/>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" s="4"/>
+      <c r="B188" s="4"/>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" s="4"/>
+      <c r="B189" s="4"/>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="4"/>
+      <c r="B190" s="4"/>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" s="4"/>
+      <c r="B191" s="4"/>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" s="4"/>
+      <c r="B192" s="4"/>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" s="4"/>
+      <c r="B193" s="4"/>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" s="4"/>
+      <c r="B194" s="4"/>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" s="4"/>
+      <c r="B195" s="4"/>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" s="4"/>
+      <c r="B196" s="4"/>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" s="4"/>
+      <c r="B197" s="4"/>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" s="4"/>
+      <c r="B198" s="4"/>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" s="4"/>
+      <c r="B199" s="4"/>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" s="4"/>
+      <c r="B200" s="4"/>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" s="4"/>
+      <c r="B201" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{43C45977-DA14-4E77-AEE0-79D6A3DC6751}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{138BAF19-469F-413F-939F-739222599B39}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{8CC75DF0-CD04-4A92-AC23-5B4EFF0AF4E7}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{8FAA9324-098C-49CC-AC19-36BCE886F434}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/urls.xlsx
+++ b/urls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sabbir\Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9713990-61D3-49A7-96E9-F6F2FD7E6FA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBA81A4-EAF2-4C35-ADEB-3B29E293855B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,6 +28,12 @@
     <t>mainUrls</t>
   </si>
   <si>
+    <t>https://www.abbviepro.com/de/de.html</t>
+  </si>
+  <si>
+    <t>https://www.abbviepro.com</t>
+  </si>
+  <si>
     <t>https://www.abbviepro.com/de/de/produkte/produktuebersicht.html</t>
   </si>
   <si>
@@ -35,12 +41,6 @@
   </si>
   <si>
     <t>https://www.abbviepro.com/fr/fr/neurosciences/Neurosciences/products/scyova.html</t>
-  </si>
-  <si>
-    <t>https://www.abbviepro.com/de/de.html</t>
-  </si>
-  <si>
-    <t>https://www.abbviepro.com</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -453,41 +453,40 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{6B47F705-C1C8-4A41-B55D-3BC668D18477}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{3D794C29-432B-4647-9C48-FEB876C38E05}"/>
-    <hyperlink ref="B2" r:id="rId3" xr:uid="{CC325D3B-6DF7-49F3-9BBE-570F528E0F3F}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{3D794C29-432B-4647-9C48-FEB876C38E05}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{CC325D3B-6DF7-49F3-9BBE-570F528E0F3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
